--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.3008322739587</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H2">
-        <v>5.3008322739587</v>
+        <v>31.970039</v>
       </c>
       <c r="I2">
-        <v>0.002819855139119336</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J2">
-        <v>0.002819855139119336</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N2">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O2">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P2">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q2">
-        <v>91.40670917640915</v>
+        <v>224.6956538478003</v>
       </c>
       <c r="R2">
-        <v>91.40670917640915</v>
+        <v>2022.260884630203</v>
       </c>
       <c r="S2">
-        <v>8.687959830420173E-05</v>
+        <v>0.0001768999975454353</v>
       </c>
       <c r="T2">
-        <v>8.687959830420173E-05</v>
+        <v>0.0001853792257607187</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.3008322739587</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H3">
-        <v>5.3008322739587</v>
+        <v>31.970039</v>
       </c>
       <c r="I3">
-        <v>0.002819855139119336</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J3">
-        <v>0.002819855139119336</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N3">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O3">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P3">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q3">
-        <v>407.2483728727354</v>
+        <v>863.8657948820011</v>
       </c>
       <c r="R3">
-        <v>407.2483728727354</v>
+        <v>7774.79215393801</v>
       </c>
       <c r="S3">
-        <v>0.0003870785346504361</v>
+        <v>0.0006801104266027509</v>
       </c>
       <c r="T3">
-        <v>0.0003870785346504361</v>
+        <v>0.0007127097007620248</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.3008322739587</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H4">
-        <v>5.3008322739587</v>
+        <v>31.970039</v>
       </c>
       <c r="I4">
-        <v>0.002819855139119336</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J4">
-        <v>0.002819855139119336</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N4">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O4">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P4">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q4">
-        <v>697.5079098198305</v>
+        <v>1459.958908593541</v>
       </c>
       <c r="R4">
-        <v>697.5079098198305</v>
+        <v>13139.63017734187</v>
       </c>
       <c r="S4">
-        <v>0.0006629623532578733</v>
+        <v>0.001149406866238602</v>
       </c>
       <c r="T4">
-        <v>0.0006629623532578733</v>
+        <v>0.001204500609971117</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.3008322739587</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H5">
-        <v>5.3008322739587</v>
+        <v>31.970039</v>
       </c>
       <c r="I5">
-        <v>0.002819855139119336</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J5">
-        <v>0.002819855139119336</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N5">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O5">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P5">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q5">
-        <v>1521.956143780854</v>
+        <v>3370.631167696542</v>
       </c>
       <c r="R5">
-        <v>1521.956143780854</v>
+        <v>30335.68050926888</v>
       </c>
       <c r="S5">
-        <v>0.00144657804224308</v>
+        <v>0.002653654554867232</v>
       </c>
       <c r="T5">
-        <v>0.00144657804224308</v>
+        <v>0.00278085038803544</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.3008322739587</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H6">
-        <v>5.3008322739587</v>
+        <v>31.970039</v>
       </c>
       <c r="I6">
-        <v>0.002819855139119336</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J6">
-        <v>0.002819855139119336</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N6">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O6">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P6">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q6">
-        <v>248.6726503639677</v>
+        <v>726.0523523922406</v>
       </c>
       <c r="R6">
-        <v>248.6726503639677</v>
+        <v>4356.314114353443</v>
       </c>
       <c r="S6">
-        <v>0.0002363566106637452</v>
+        <v>0.0005716116763123687</v>
       </c>
       <c r="T6">
-        <v>0.0002363566106637452</v>
+        <v>0.0003993402353905527</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1817.26560160239</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H7">
-        <v>1817.26560160239</v>
+        <v>5894.824219</v>
       </c>
       <c r="I7">
-        <v>0.9667209753075875</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J7">
-        <v>0.9667209753075875</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N7">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O7">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P7">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q7">
-        <v>31336.6391836257</v>
+        <v>41430.70898994067</v>
       </c>
       <c r="R7">
-        <v>31336.6391836257</v>
+        <v>372876.380909466</v>
       </c>
       <c r="S7">
-        <v>0.02978462575676833</v>
+        <v>0.03261786417814106</v>
       </c>
       <c r="T7">
-        <v>0.02978462575676833</v>
+        <v>0.03418131425218949</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1817.26560160239</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H8">
-        <v>1817.26560160239</v>
+        <v>5894.824219</v>
       </c>
       <c r="I8">
-        <v>0.9667209753075875</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J8">
-        <v>0.9667209753075875</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N8">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O8">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P8">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q8">
-        <v>139615.520937332</v>
+        <v>159284.6667980639</v>
       </c>
       <c r="R8">
-        <v>139615.520937332</v>
+        <v>1433562.001182575</v>
       </c>
       <c r="S8">
-        <v>0.1327007665559608</v>
+        <v>0.1254027689591595</v>
       </c>
       <c r="T8">
-        <v>0.1327007665559608</v>
+        <v>0.1314136152654748</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1817.26560160239</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H9">
-        <v>1817.26560160239</v>
+        <v>5894.824219</v>
       </c>
       <c r="I9">
-        <v>0.9667209753075875</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J9">
-        <v>0.9667209753075875</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N9">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O9">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P9">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q9">
-        <v>239124.1725546127</v>
+        <v>269195.8284167877</v>
       </c>
       <c r="R9">
-        <v>239124.1725546127</v>
+        <v>2422762.455751089</v>
       </c>
       <c r="S9">
-        <v>0.2272810414416617</v>
+        <v>0.2119344124850208</v>
       </c>
       <c r="T9">
-        <v>0.2272810414416617</v>
+        <v>0.2220929216713816</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1817.26560160239</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H10">
-        <v>1817.26560160239</v>
+        <v>5894.824219</v>
       </c>
       <c r="I10">
-        <v>0.9667209753075875</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J10">
-        <v>0.9667209753075875</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N10">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O10">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P10">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q10">
-        <v>521766.8479774118</v>
+        <v>621496.8408594632</v>
       </c>
       <c r="R10">
-        <v>521766.8479774118</v>
+        <v>5593471.567735169</v>
       </c>
       <c r="S10">
-        <v>0.4959252397243761</v>
+        <v>0.4892964671982735</v>
       </c>
       <c r="T10">
-        <v>0.4959252397243761</v>
+        <v>0.5127495845972181</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1817.26560160239</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H11">
-        <v>1817.26560160239</v>
+        <v>5894.824219</v>
       </c>
       <c r="I11">
-        <v>0.9667209753075875</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J11">
-        <v>0.9667209753075875</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N11">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O11">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P11">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q11">
-        <v>85251.56620891369</v>
+        <v>133873.8120132948</v>
       </c>
       <c r="R11">
-        <v>85251.56620891369</v>
+        <v>803242.8720797687</v>
       </c>
       <c r="S11">
-        <v>0.08102930182882057</v>
+        <v>0.105397129899946</v>
       </c>
       <c r="T11">
-        <v>0.08102930182882057</v>
+        <v>0.07363270627231301</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.428296604429237</v>
+        <v>1.166748</v>
       </c>
       <c r="H12">
-        <v>0.428296604429237</v>
+        <v>3.500244</v>
       </c>
       <c r="I12">
-        <v>0.0002278386333784526</v>
+        <v>0.000572791570766042</v>
       </c>
       <c r="J12">
-        <v>0.0002278386333784526</v>
+        <v>0.0005783858930568872</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N12">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O12">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P12">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q12">
-        <v>7.385478569966132</v>
+        <v>24.600833743332</v>
       </c>
       <c r="R12">
-        <v>7.385478569966132</v>
+        <v>221.407503689988</v>
       </c>
       <c r="S12">
-        <v>7.019697101277425E-06</v>
+        <v>1.936791991428051E-05</v>
       </c>
       <c r="T12">
-        <v>7.019697101277425E-06</v>
+        <v>2.029626935061297E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.428296604429237</v>
+        <v>1.166748</v>
       </c>
       <c r="H13">
-        <v>0.428296604429237</v>
+        <v>3.500244</v>
       </c>
       <c r="I13">
-        <v>0.0002278386333784526</v>
+        <v>0.000572791570766042</v>
       </c>
       <c r="J13">
-        <v>0.0002278386333784526</v>
+        <v>0.0005783858930568872</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N13">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O13">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P13">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q13">
-        <v>32.90485083212489</v>
+        <v>94.58046220528399</v>
       </c>
       <c r="R13">
-        <v>32.90485083212489</v>
+        <v>851.2241598475561</v>
       </c>
       <c r="S13">
-        <v>3.1275168401889E-05</v>
+        <v>7.44619811084284E-05</v>
       </c>
       <c r="T13">
-        <v>3.1275168401889E-05</v>
+        <v>7.803111700408226E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.428296604429237</v>
+        <v>1.166748</v>
       </c>
       <c r="H14">
-        <v>0.428296604429237</v>
+        <v>3.500244</v>
       </c>
       <c r="I14">
-        <v>0.0002278386333784526</v>
+        <v>0.000572791570766042</v>
       </c>
       <c r="J14">
-        <v>0.0002278386333784526</v>
+        <v>0.0005783858930568872</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N14">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O14">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P14">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q14">
-        <v>56.35723861816636</v>
+        <v>159.843796563748</v>
       </c>
       <c r="R14">
-        <v>56.35723861816636</v>
+        <v>1438.594169073732</v>
       </c>
       <c r="S14">
-        <v>5.356602701045502E-05</v>
+        <v>0.00012584296463043</v>
       </c>
       <c r="T14">
-        <v>5.356602701045502E-05</v>
+        <v>0.0001318749105388249</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.428296604429237</v>
+        <v>1.166748</v>
       </c>
       <c r="H15">
-        <v>0.428296604429237</v>
+        <v>3.500244</v>
       </c>
       <c r="I15">
-        <v>0.0002278386333784526</v>
+        <v>0.000572791570766042</v>
       </c>
       <c r="J15">
-        <v>0.0002278386333784526</v>
+        <v>0.0005783858930568872</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N15">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O15">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P15">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q15">
-        <v>122.9710005490798</v>
+        <v>369.034004648628</v>
       </c>
       <c r="R15">
-        <v>122.9710005490798</v>
+        <v>3321.306041837652</v>
       </c>
       <c r="S15">
-        <v>0.0001168806012931832</v>
+        <v>0.0002905357242056133</v>
       </c>
       <c r="T15">
-        <v>0.0001168806012931832</v>
+        <v>0.0003044617770287588</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.428296604429237</v>
+        <v>1.166748</v>
       </c>
       <c r="H16">
-        <v>0.428296604429237</v>
+        <v>3.500244</v>
       </c>
       <c r="I16">
-        <v>0.0002278386333784526</v>
+        <v>0.000572791570766042</v>
       </c>
       <c r="J16">
-        <v>0.0002278386333784526</v>
+        <v>0.0005783858930568872</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N16">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O16">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P16">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q16">
-        <v>20.09225085059465</v>
+        <v>79.49193900410398</v>
       </c>
       <c r="R16">
-        <v>20.09225085059465</v>
+        <v>476.951634024624</v>
       </c>
       <c r="S16">
-        <v>1.909713957164795E-05</v>
+        <v>6.258298090728982E-05</v>
       </c>
       <c r="T16">
-        <v>1.909713957164795E-05</v>
+        <v>4.372181913460819E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.289213345465911</v>
+        <v>1.079543</v>
       </c>
       <c r="H17">
-        <v>0.289213345465911</v>
+        <v>3.238629</v>
       </c>
       <c r="I17">
-        <v>0.0001538512626631165</v>
+        <v>0.0005299800219751696</v>
       </c>
       <c r="J17">
-        <v>0.0001538512626631165</v>
+        <v>0.0005351562138082184</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N17">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O17">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P17">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q17">
-        <v>4.987148959383363</v>
+        <v>22.762119893737</v>
       </c>
       <c r="R17">
-        <v>4.987148959383363</v>
+        <v>204.859079043633</v>
       </c>
       <c r="S17">
-        <v>4.740149844342809E-06</v>
+        <v>1.792032415570639E-05</v>
       </c>
       <c r="T17">
-        <v>4.740149844342809E-06</v>
+        <v>1.877928696133936E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.289213345465911</v>
+        <v>1.079543</v>
       </c>
       <c r="H18">
-        <v>0.289213345465911</v>
+        <v>3.238629</v>
       </c>
       <c r="I18">
-        <v>0.0001538512626631165</v>
+        <v>0.0005299800219751696</v>
       </c>
       <c r="J18">
-        <v>0.0001538512626631165</v>
+        <v>0.0005351562138082184</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N18">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O18">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P18">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q18">
-        <v>22.21946635299071</v>
+        <v>87.51133570443567</v>
       </c>
       <c r="R18">
-        <v>22.21946635299071</v>
+        <v>787.6020213399211</v>
       </c>
       <c r="S18">
-        <v>2.111900022082596E-05</v>
+        <v>6.889654875923174E-05</v>
       </c>
       <c r="T18">
-        <v>2.111900022082596E-05</v>
+        <v>7.219892054148622E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.289213345465911</v>
+        <v>1.079543</v>
       </c>
       <c r="H19">
-        <v>0.289213345465911</v>
+        <v>3.238629</v>
       </c>
       <c r="I19">
-        <v>0.0001538512626631165</v>
+        <v>0.0005299800219751696</v>
       </c>
       <c r="J19">
-        <v>0.0001538512626631165</v>
+        <v>0.0005351562138082184</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N19">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O19">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P19">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q19">
-        <v>38.05602321713827</v>
+        <v>147.8967623461263</v>
       </c>
       <c r="R19">
-        <v>38.05602321713827</v>
+        <v>1331.070861115137</v>
       </c>
       <c r="S19">
-        <v>3.617121806430438E-05</v>
+        <v>0.0001164372182905206</v>
       </c>
       <c r="T19">
-        <v>3.617121806430438E-05</v>
+        <v>0.0001220183249063334</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.289213345465911</v>
+        <v>1.079543</v>
       </c>
       <c r="H20">
-        <v>0.289213345465911</v>
+        <v>3.238629</v>
       </c>
       <c r="I20">
-        <v>0.0001538512626631165</v>
+        <v>0.0005299800219751696</v>
       </c>
       <c r="J20">
-        <v>0.0001538512626631165</v>
+        <v>0.0005351562138082184</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N20">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O20">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P20">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q20">
-        <v>83.03790900113421</v>
+        <v>341.4516900653729</v>
       </c>
       <c r="R20">
-        <v>83.03790900113421</v>
+        <v>3073.065210588357</v>
       </c>
       <c r="S20">
-        <v>7.892528068280256E-05</v>
+        <v>0.0002688205227830691</v>
       </c>
       <c r="T20">
-        <v>7.892528068280256E-05</v>
+        <v>0.0002817057155092251</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.289213345465911</v>
+        <v>1.079543</v>
       </c>
       <c r="H21">
-        <v>0.289213345465911</v>
+        <v>3.238629</v>
       </c>
       <c r="I21">
-        <v>0.0001538512626631165</v>
+        <v>0.0005299800219751696</v>
       </c>
       <c r="J21">
-        <v>0.0001538512626631165</v>
+        <v>0.0005351562138082184</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N21">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O21">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P21">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q21">
-        <v>13.56757682957736</v>
+        <v>73.55055788251398</v>
       </c>
       <c r="R21">
-        <v>13.56757682957736</v>
+        <v>441.303347295084</v>
       </c>
       <c r="S21">
-        <v>1.289561385084076E-05</v>
+        <v>5.790540798664182E-05</v>
       </c>
       <c r="T21">
-        <v>1.289561385084076E-05</v>
+        <v>4.045396588983425E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.5403777927003</v>
+        <v>59.10598950000001</v>
       </c>
       <c r="H22">
-        <v>56.5403777927003</v>
+        <v>118.211979</v>
       </c>
       <c r="I22">
-        <v>0.03007747965725144</v>
+        <v>0.0290169021651515</v>
       </c>
       <c r="J22">
-        <v>0.03007747965725144</v>
+        <v>0.01953353567463783</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N22">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O22">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P22">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q22">
-        <v>974.9732876875261</v>
+        <v>1246.247365261931</v>
       </c>
       <c r="R22">
-        <v>974.9732876875261</v>
+        <v>7477.484191571583</v>
       </c>
       <c r="S22">
-        <v>0.0009266856706124641</v>
+        <v>0.0009811545175910351</v>
       </c>
       <c r="T22">
-        <v>0.0009266856706124641</v>
+        <v>0.0006854556900184685</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.5403777927003</v>
+        <v>59.10598950000001</v>
       </c>
       <c r="H23">
-        <v>56.5403777927003</v>
+        <v>118.211979</v>
       </c>
       <c r="I23">
-        <v>0.03007747965725144</v>
+        <v>0.0290169021651515</v>
       </c>
       <c r="J23">
-        <v>0.03007747965725144</v>
+        <v>0.01953353567463783</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N23">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O23">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P23">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q23">
-        <v>4343.841809673215</v>
+        <v>4791.327524033179</v>
       </c>
       <c r="R23">
-        <v>4343.841809673215</v>
+        <v>28747.96514419908</v>
       </c>
       <c r="S23">
-        <v>0.004128703843752481</v>
+        <v>0.003772150518830088</v>
       </c>
       <c r="T23">
-        <v>0.004128703843752481</v>
+        <v>0.002635305642873215</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.5403777927003</v>
+        <v>59.10598950000001</v>
       </c>
       <c r="H24">
-        <v>56.5403777927003</v>
+        <v>118.211979</v>
       </c>
       <c r="I24">
-        <v>0.03007747965725144</v>
+        <v>0.0290169021651515</v>
       </c>
       <c r="J24">
-        <v>0.03007747965725144</v>
+        <v>0.01953353567463783</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N24">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O24">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P24">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q24">
-        <v>7439.8431597908</v>
+        <v>8097.486142112115</v>
       </c>
       <c r="R24">
-        <v>7439.8431597908</v>
+        <v>48584.91685267269</v>
       </c>
       <c r="S24">
-        <v>0.007071369169646328</v>
+        <v>0.006375046664828282</v>
       </c>
       <c r="T24">
-        <v>0.007071369169646328</v>
+        <v>0.004453744983276153</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.5403777927003</v>
+        <v>59.10598950000001</v>
       </c>
       <c r="H25">
-        <v>56.5403777927003</v>
+        <v>118.211979</v>
       </c>
       <c r="I25">
-        <v>0.03007747965725144</v>
+        <v>0.0290169021651515</v>
       </c>
       <c r="J25">
-        <v>0.03007747965725144</v>
+        <v>0.01953353567463783</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N25">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O25">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P25">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q25">
-        <v>16233.67254535419</v>
+        <v>18694.79956589148</v>
       </c>
       <c r="R25">
-        <v>16233.67254535419</v>
+        <v>112168.7973953489</v>
       </c>
       <c r="S25">
-        <v>0.01542966552947865</v>
+        <v>0.01471817518801993</v>
       </c>
       <c r="T25">
-        <v>0.01542966552947865</v>
+        <v>0.01028243436526891</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>56.5403777927003</v>
+        <v>59.10598950000001</v>
       </c>
       <c r="H26">
-        <v>56.5403777927003</v>
+        <v>118.211979</v>
       </c>
       <c r="I26">
-        <v>0.03007747965725144</v>
+        <v>0.0290169021651515</v>
       </c>
       <c r="J26">
-        <v>0.03007747965725144</v>
+        <v>0.01953353567463783</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N26">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O26">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P26">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q26">
-        <v>2652.422274774347</v>
+        <v>4026.961873610421</v>
       </c>
       <c r="R26">
-        <v>2652.422274774347</v>
+        <v>16107.84749444168</v>
       </c>
       <c r="S26">
-        <v>0.002521055443761519</v>
+        <v>0.003170375275882173</v>
       </c>
       <c r="T26">
-        <v>0.002521055443761519</v>
+        <v>0.001476594993201075</v>
       </c>
     </row>
   </sheetData>
